--- a/CH-154 Custom Index Column.xlsx
+++ b/CH-154 Custom Index Column.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A80218-3274-47E0-AEE4-04D5DFF531D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DE3B2-CE67-4250-95B7-7400A46C2691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$E$2:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$E$2:$G$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Result</t>
   </si>
@@ -63,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +127,14 @@
       <color theme="0"/>
       <name val="Corbel"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Corbel"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,8 +282,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +736,7 @@
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -932,8 +969,450 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{7B8ABF21-A355-4E5F-838F-5C469A555FFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97797727-1DED-43F9-86F3-C8D0A3FC29C0}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="K1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C4" s="7">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45599</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C5" s="7">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45601</v>
+      </c>
+      <c r="F5" s="7">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8">
+        <v>45606</v>
+      </c>
+      <c r="C6" s="9">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45606</v>
+      </c>
+      <c r="F6" s="9">
+        <v>99</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8">
+        <v>45607</v>
+      </c>
+      <c r="C7" s="9">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45607</v>
+      </c>
+      <c r="F7" s="9">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8">
+        <v>45608</v>
+      </c>
+      <c r="F8" s="9">
+        <v>100</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8">
+        <v>45609</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C10" s="7">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5">
+        <v>45611</v>
+      </c>
+      <c r="F10" s="7">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C11" s="7">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5">
+        <v>45612</v>
+      </c>
+      <c r="F11" s="7">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>45613</v>
+      </c>
+      <c r="C12" s="7">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5">
+        <v>45613</v>
+      </c>
+      <c r="F12" s="7">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5">
+        <v>45615</v>
+      </c>
+      <c r="F13" s="7">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D17">
+        <f>IF(B17-C17=1,D16,D16+1)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b" cm="1">
+        <f t="array" ref="E17:E27">D17:D27=G3:G13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D27" si="0">IF(B18-C18=1,D17,D17+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45599</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>45606</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45601</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>45607</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45606</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45607</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45608</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45609</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45611</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>45613</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45612</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45613</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{CB24ABFD-6BA4-4957-817C-FEDBF3F0233A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CH-154 Custom Index Column.xlsx
+++ b/CH-154 Custom Index Column.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DE3B2-CE67-4250-95B7-7400A46C2691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE43428-39B3-495C-995E-467361E8E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="MySingleFunction" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$E$2:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingleFunction!$E$2:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$E$2:$G$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Result</t>
   </si>
@@ -982,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97797727-1DED-43F9-86F3-C8D0A3FC29C0}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,4 +1417,515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4AD942-683B-40E7-A8A5-F2D53EF48FFB}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="K1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="5">
+        <v>45597</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C4" s="7">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45599</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C5" s="7">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45601</v>
+      </c>
+      <c r="F5" s="7">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8">
+        <v>45606</v>
+      </c>
+      <c r="C6" s="9">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45606</v>
+      </c>
+      <c r="F6" s="9">
+        <v>99</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8">
+        <v>45607</v>
+      </c>
+      <c r="C7" s="9">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45607</v>
+      </c>
+      <c r="F7" s="9">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8">
+        <v>45608</v>
+      </c>
+      <c r="F8" s="9">
+        <v>100</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8">
+        <v>45609</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C10" s="7">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5">
+        <v>45611</v>
+      </c>
+      <c r="F10" s="7">
+        <v>84</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C11" s="7">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5">
+        <v>45612</v>
+      </c>
+      <c r="F11" s="7">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>45613</v>
+      </c>
+      <c r="C12" s="7">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5">
+        <v>45613</v>
+      </c>
+      <c r="F12" s="7">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5">
+        <v>45615</v>
+      </c>
+      <c r="F13" s="7">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D17">
+        <f>IF(B17-C17=1,D16,D16+1)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b" cm="1">
+        <f t="array" ref="E17:E27">D17:D27=G3:G13</f>
+        <v>1</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17:I27">_xlfn.LET(
+_xlpm.d, B3:B13,
+_xlpm.ds, _xlfn.DROP(_xlfn.VSTACK(0,_xlpm.d),-1),
+_xlfn.SCAN(0,_xlpm.d-_xlpm.ds,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v=1,_xlpm.a,_xlpm.a+1)))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b" cm="1">
+        <f t="array" ref="J17:J27">_xlfn.ANCHORARRAY(I17)=G3:G13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>45599</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D27" si="0">IF(B18-C18=1,D17,D17+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>45601</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45599</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>45606</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45601</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>45607</v>
+      </c>
+      <c r="C21" s="8">
+        <v>45606</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C22" s="8">
+        <v>45607</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45608</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>45611</v>
+      </c>
+      <c r="C24" s="8">
+        <v>45609</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>45612</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45611</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>45613</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45612</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>45615</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45613</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{05D36A24-7183-416B-BD49-0DC563AF9C15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-154 Custom Index Column.xlsx
+++ b/CH-154 Custom Index Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE43428-39B3-495C-995E-467361E8E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022682B0-7642-424C-97D0-AEC4FD3DA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Result</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>My first use of adding a number to the beginning and chopping off the end.</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1427,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,6 +1672,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>0</v>
